--- a/Downer/32716/res_Stabilisation ITP.xlsx
+++ b/Downer/32716/res_Stabilisation ITP.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\32716\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB034F46-D6C1-4A8C-A5E7-7AC1085D910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D5F40A-78BA-42A5-B0FC-0DFB67038515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="945" windowWidth="28980" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="675" windowWidth="28890" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$543</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$569</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="294">
   <si>
     <t>type</t>
   </si>
@@ -912,6 +912,12 @@
   </si>
   <si>
     <t>ACCEPTANCE CRITERIA - TMP checked and approved -   Plans approved</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1066,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,6 +1270,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1425,7 +1437,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1436,6 +1448,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1791,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,9 +1815,9 @@
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="194.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1937,19 +1950,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1957,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1965,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,23 +1986,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,39 +2018,39 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2045,7 +2058,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2061,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2069,15 +2082,15 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,15 +2098,15 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2101,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,15 +2122,15 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>25</v>
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2125,15 +2138,15 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>279</v>
+      <c r="A37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,15 +2154,15 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>41</v>
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2157,23 +2170,23 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>43</v>
+      <c r="A41" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>23</v>
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2181,15 +2194,15 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>25</v>
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,7 +2210,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2205,23 +2218,23 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>36</v>
+      <c r="A47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +2242,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2237,23 +2250,23 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>47</v>
+      <c r="A51" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>25</v>
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2261,7 +2274,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2269,7 +2282,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,15 +2290,15 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>49</v>
+      <c r="A56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2301,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,23 +2322,23 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>51</v>
+      <c r="A60" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>25</v>
+      <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +2354,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>280</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,23 +2362,23 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>52</v>
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>53</v>
+      <c r="A66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2389,23 +2402,23 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>25</v>
+      <c r="A70" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>35</v>
+      <c r="A71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2413,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>281</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2421,15 +2434,15 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>56</v>
+      <c r="A74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2437,15 +2450,15 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>53</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>57</v>
+      <c r="A76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2453,7 +2466,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,31 +2474,31 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>25</v>
+      <c r="A79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>35</v>
+      <c r="A80" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>282</v>
+      <c r="A81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,15 +2506,15 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>59</v>
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +2522,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2517,15 +2530,15 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>62</v>
+      <c r="A86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,15 +2546,15 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>25</v>
+      <c r="A88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,31 +2562,31 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>283</v>
+      <c r="A90" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>36</v>
+      <c r="A91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>64</v>
+      <c r="A92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +2602,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,23 +2610,23 @@
         <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>67</v>
+      <c r="A96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>25</v>
+      <c r="A97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2634,7 @@
         <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,15 +2642,15 @@
         <v>9</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>284</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>36</v>
+      <c r="A100" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2645,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +2714,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,11 +2726,11 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>17</v>
+      <c r="A110" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +2738,7 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +2746,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +2754,7 @@
         <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,15 +2770,15 @@
         <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>35</v>
+      <c r="A116" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,15 +2786,15 @@
         <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>74</v>
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,31 +2802,31 @@
         <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>76</v>
+      <c r="A120" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>77</v>
+      <c r="A121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>78</v>
+      <c r="A122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,7 +2842,7 @@
         <v>9</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,31 +2858,31 @@
         <v>9</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>81</v>
+      <c r="B129" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +2890,7 @@
         <v>9</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +2898,7 @@
         <v>9</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,15 +2906,15 @@
         <v>9</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>25</v>
+      <c r="A133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,7 +2922,7 @@
         <v>9</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,7 +2930,7 @@
         <v>9</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,31 +2938,31 @@
         <v>9</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>89</v>
+      <c r="B139" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +2970,7 @@
         <v>9</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,15 +2978,15 @@
         <v>9</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>25</v>
+      <c r="A142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,15 +2994,15 @@
         <v>9</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>92</v>
+      <c r="A144" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,15 +3010,15 @@
         <v>9</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>93</v>
+      <c r="A146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,23 +3026,23 @@
         <v>9</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>94</v>
+      <c r="A148" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>90</v>
+      <c r="A149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3050,7 @@
         <v>9</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3066,7 @@
         <v>9</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,23 +3074,23 @@
         <v>9</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>86</v>
+      <c r="A154" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>97</v>
+      <c r="A155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3098,7 @@
         <v>9</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,39 +3106,39 @@
         <v>9</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>100</v>
+      <c r="A158" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>101</v>
+      <c r="A159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>102</v>
+      <c r="B160" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>25</v>
+      <c r="A161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3146,7 @@
         <v>9</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,15 +3162,15 @@
         <v>9</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>103</v>
+      <c r="A165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,15 +3186,15 @@
         <v>9</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>105</v>
+      <c r="A168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,31 +3218,31 @@
         <v>9</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>96</v>
+      <c r="B172" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>35</v>
+      <c r="B173" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>92</v>
+      <c r="A174" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,39 +3250,39 @@
         <v>9</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>111</v>
+      <c r="B179" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3285,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3293,7 +3306,7 @@
         <v>9</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3301,7 +3314,7 @@
         <v>9</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3309,7 +3322,7 @@
         <v>9</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3317,15 +3330,15 @@
         <v>9</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>115</v>
+      <c r="A186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,7 +3346,7 @@
         <v>9</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3341,7 +3354,7 @@
         <v>9</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3349,23 +3362,23 @@
         <v>9</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>118</v>
+      <c r="A190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>119</v>
+      <c r="A191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3373,7 +3386,7 @@
         <v>9</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3381,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3389,7 +3402,7 @@
         <v>9</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3397,7 +3410,7 @@
         <v>9</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3405,15 +3418,15 @@
         <v>9</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>122</v>
+      <c r="A197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +3434,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3429,15 +3442,15 @@
         <v>9</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>117</v>
+      <c r="A200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3458,7 @@
         <v>9</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3461,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3469,7 +3482,7 @@
         <v>9</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,15 +3490,15 @@
         <v>9</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>131</v>
+      <c r="A206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3493,7 +3506,7 @@
         <v>9</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3501,7 +3514,7 @@
         <v>9</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3509,7 +3522,7 @@
         <v>9</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3517,15 +3530,15 @@
         <v>9</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>34</v>
+      <c r="A211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3533,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3541,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,15 +3562,15 @@
         <v>9</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>132</v>
+      <c r="A215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +3578,7 @@
         <v>9</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3573,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,7 +3594,7 @@
         <v>9</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3589,15 +3602,15 @@
         <v>9</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>25</v>
+      <c r="A220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3605,7 +3618,7 @@
         <v>9</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +3626,7 @@
         <v>9</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3621,15 +3634,15 @@
         <v>9</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>133</v>
+      <c r="A224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3650,7 @@
         <v>9</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +3658,7 @@
         <v>9</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,7 +3666,7 @@
         <v>9</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3661,15 +3674,15 @@
         <v>9</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>34</v>
+      <c r="A229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3677,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,15 +3698,15 @@
         <v>9</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>138</v>
+      <c r="A232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,15 +3714,15 @@
         <v>9</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>141</v>
+      <c r="A234" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,7 +3730,7 @@
         <v>9</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3725,7 +3738,7 @@
         <v>9</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,31 +3746,31 @@
         <v>9</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>35</v>
+      <c r="A238" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>36</v>
+      <c r="A239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>144</v>
+      <c r="A240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3765,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3773,7 +3786,7 @@
         <v>9</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3781,7 +3794,7 @@
         <v>9</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3813,7 +3826,7 @@
         <v>8</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3821,7 +3834,7 @@
         <v>9</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3829,7 +3842,7 @@
         <v>9</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3837,7 +3850,7 @@
         <v>9</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3845,7 +3858,7 @@
         <v>9</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3853,7 +3866,7 @@
         <v>9</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3869,23 +3882,23 @@
         <v>9</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>36</v>
+      <c r="A255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>153</v>
+      <c r="A256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3893,7 +3906,7 @@
         <v>9</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3901,7 +3914,7 @@
         <v>9</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3909,7 +3922,7 @@
         <v>9</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3917,23 +3930,23 @@
         <v>9</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>25</v>
+      <c r="A261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>35</v>
+      <c r="A262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3941,7 +3954,7 @@
         <v>9</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3949,15 +3962,15 @@
         <v>9</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>154</v>
+      <c r="A265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3965,7 +3978,7 @@
         <v>9</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3973,7 +3986,7 @@
         <v>9</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3981,7 +3994,7 @@
         <v>9</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3989,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3997,15 +4010,15 @@
         <v>9</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>35</v>
+      <c r="A271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4013,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4021,15 +4034,15 @@
         <v>9</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>122</v>
+      <c r="A274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4037,15 +4050,15 @@
         <v>9</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>111</v>
+      <c r="A276" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4061,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,23 +4082,23 @@
         <v>9</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>35</v>
+      <c r="A280" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>125</v>
+      <c r="A281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4093,15 +4106,15 @@
         <v>9</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>158</v>
+      <c r="A283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4109,7 +4122,7 @@
         <v>9</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,7 +4130,7 @@
         <v>9</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4125,7 +4138,7 @@
         <v>9</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4133,7 +4146,7 @@
         <v>9</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4141,7 +4154,7 @@
         <v>9</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4149,15 +4162,15 @@
         <v>9</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>161</v>
+      <c r="A290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,15 +4178,15 @@
         <v>9</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>162</v>
+      <c r="A292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4181,7 +4194,7 @@
         <v>9</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4189,7 +4202,7 @@
         <v>9</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4197,7 +4210,7 @@
         <v>9</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4205,7 +4218,7 @@
         <v>9</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4213,7 +4226,7 @@
         <v>9</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4221,15 +4234,15 @@
         <v>9</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>166</v>
+      <c r="A299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4237,15 +4250,15 @@
         <v>9</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>167</v>
+      <c r="A301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4253,7 +4266,7 @@
         <v>9</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4261,7 +4274,7 @@
         <v>9</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4269,7 +4282,7 @@
         <v>9</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4277,15 +4290,15 @@
         <v>9</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B306" s="7" t="s">
-        <v>25</v>
+      <c r="A306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4293,15 +4306,15 @@
         <v>9</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>171</v>
+      <c r="A308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4309,15 +4322,15 @@
         <v>9</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>172</v>
+      <c r="A310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4325,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4333,7 +4346,7 @@
         <v>9</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4341,7 +4354,7 @@
         <v>9</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,7 +4362,7 @@
         <v>9</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4357,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4373,7 +4386,7 @@
         <v>8</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4381,7 +4394,7 @@
         <v>9</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4389,7 +4402,7 @@
         <v>9</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +4410,7 @@
         <v>9</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4405,15 +4418,15 @@
         <v>9</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>35</v>
+      <c r="A322" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4421,15 +4434,15 @@
         <v>9</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>179</v>
+      <c r="A324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4437,23 +4450,23 @@
         <v>9</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>111</v>
+      <c r="A326" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>180</v>
+      <c r="A327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4461,7 +4474,7 @@
         <v>9</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4469,7 +4482,7 @@
         <v>9</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4477,7 +4490,7 @@
         <v>9</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4485,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4493,23 +4506,23 @@
         <v>9</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>110</v>
+      <c r="B334" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4517,7 +4530,7 @@
         <v>9</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4525,7 +4538,7 @@
         <v>9</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4533,7 +4546,7 @@
         <v>9</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4541,7 +4554,7 @@
         <v>9</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4557,23 +4570,23 @@
         <v>9</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>36</v>
+      <c r="A341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>187</v>
+      <c r="A342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -4581,7 +4594,7 @@
         <v>9</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -4589,7 +4602,7 @@
         <v>9</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4597,15 +4610,15 @@
         <v>9</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B346" s="7" t="s">
-        <v>25</v>
+      <c r="A346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4613,7 +4626,7 @@
         <v>9</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4621,7 +4634,7 @@
         <v>9</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4629,7 +4642,7 @@
         <v>9</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -4637,7 +4650,7 @@
         <v>8</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4645,7 +4658,7 @@
         <v>9</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4653,7 +4666,7 @@
         <v>9</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4661,7 +4674,7 @@
         <v>9</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>287</v>
+        <v>184</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4669,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4677,7 +4690,7 @@
         <v>9</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4685,7 +4698,7 @@
         <v>9</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4693,7 +4706,7 @@
         <v>9</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4701,7 +4714,7 @@
         <v>9</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>288</v>
+        <v>36</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -4709,7 +4722,7 @@
         <v>8</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4717,7 +4730,7 @@
         <v>9</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -4725,7 +4738,7 @@
         <v>9</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -4733,23 +4746,23 @@
         <v>9</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>198</v>
+      <c r="A363" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B364" s="7" t="s">
-        <v>25</v>
+      <c r="A364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4757,7 +4770,7 @@
         <v>9</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4765,15 +4778,15 @@
         <v>9</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>288</v>
+      <c r="A367" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -4781,7 +4794,7 @@
         <v>8</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4789,7 +4802,7 @@
         <v>9</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4813,7 +4826,7 @@
         <v>9</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4829,7 +4842,7 @@
         <v>9</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +4850,7 @@
         <v>9</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4845,7 +4858,7 @@
         <v>9</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>36</v>
+        <v>288</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4853,7 +4866,7 @@
         <v>8</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -4861,7 +4874,7 @@
         <v>9</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4885,7 +4898,7 @@
         <v>9</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -4901,7 +4914,7 @@
         <v>9</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4909,7 +4922,7 @@
         <v>9</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4917,23 +4930,23 @@
         <v>9</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>36</v>
+        <v>288</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B386" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>207</v>
+      <c r="B387" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -4941,7 +4954,7 @@
         <v>9</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -4949,7 +4962,7 @@
         <v>9</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -4957,15 +4970,15 @@
         <v>9</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B391" s="7" t="s">
-        <v>25</v>
+      <c r="A391" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -4973,7 +4986,7 @@
         <v>9</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4981,15 +4994,15 @@
         <v>9</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>210</v>
+      <c r="A394" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -4997,15 +5010,15 @@
         <v>9</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>212</v>
+      <c r="A396" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5013,7 +5026,7 @@
         <v>9</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>289</v>
+        <v>199</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5021,7 +5034,7 @@
         <v>9</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5029,7 +5042,7 @@
         <v>9</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>34</v>
+        <v>287</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5037,15 +5050,15 @@
         <v>9</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>215</v>
+      <c r="A401" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5053,15 +5066,15 @@
         <v>9</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>226</v>
+      <c r="A403" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5069,23 +5082,23 @@
         <v>9</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>221</v>
+      <c r="A405" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>222</v>
+      <c r="A406" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5093,7 +5106,7 @@
         <v>9</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5101,7 +5114,7 @@
         <v>9</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5109,7 +5122,7 @@
         <v>9</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5117,15 +5130,15 @@
         <v>9</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>219</v>
+      <c r="A411" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5133,7 +5146,7 @@
         <v>9</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5141,31 +5154,31 @@
         <v>9</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>190</v>
+      <c r="A414" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>288</v>
+      <c r="A415" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>225</v>
+      <c r="A416" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5173,7 +5186,7 @@
         <v>9</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5181,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5189,7 +5202,7 @@
         <v>9</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5197,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5205,7 +5218,7 @@
         <v>9</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5213,7 +5226,7 @@
         <v>9</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5221,15 +5234,15 @@
         <v>9</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>227</v>
+        <v>36</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>34</v>
+      <c r="A424" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5237,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -5245,15 +5258,15 @@
         <v>9</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>231</v>
+      <c r="A427" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -5261,7 +5274,7 @@
         <v>9</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -5269,7 +5282,7 @@
         <v>9</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -5277,7 +5290,7 @@
         <v>9</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -5285,7 +5298,7 @@
         <v>9</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -5293,7 +5306,7 @@
         <v>9</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -5301,7 +5314,7 @@
         <v>9</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -5309,15 +5322,15 @@
         <v>9</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>230</v>
+      <c r="A435" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -5325,15 +5338,15 @@
         <v>9</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>228</v>
+      <c r="A437" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -5341,7 +5354,7 @@
         <v>9</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -5349,7 +5362,7 @@
         <v>9</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -5357,7 +5370,7 @@
         <v>9</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -5365,7 +5378,7 @@
         <v>9</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -5373,15 +5386,15 @@
         <v>9</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>234</v>
+      <c r="A443" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -5389,7 +5402,7 @@
         <v>9</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -5397,7 +5410,7 @@
         <v>9</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -5405,7 +5418,7 @@
         <v>9</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -5413,15 +5426,15 @@
         <v>9</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>34</v>
+      <c r="A448" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -5429,7 +5442,7 @@
         <v>9</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -5437,15 +5450,15 @@
         <v>9</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>237</v>
+      <c r="A451" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -5453,7 +5466,7 @@
         <v>9</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -5461,7 +5474,7 @@
         <v>9</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -5469,7 +5482,7 @@
         <v>9</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>239</v>
+        <v>35</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -5477,15 +5490,15 @@
         <v>9</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B456" s="7" t="s">
-        <v>25</v>
+      <c r="A456" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -5493,7 +5506,7 @@
         <v>9</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -5501,7 +5514,7 @@
         <v>9</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -5509,23 +5522,23 @@
         <v>9</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>192</v>
+      <c r="A460" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>246</v>
+      <c r="A461" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -5533,7 +5546,7 @@
         <v>9</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -5541,15 +5554,15 @@
         <v>9</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>244</v>
+      <c r="A464" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -5557,7 +5570,7 @@
         <v>9</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -5565,7 +5578,7 @@
         <v>9</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -5573,7 +5586,7 @@
         <v>9</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -5581,15 +5594,15 @@
         <v>9</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>247</v>
+      <c r="A469" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -5597,7 +5610,7 @@
         <v>9</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -5605,23 +5618,23 @@
         <v>9</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>244</v>
+      <c r="A472" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B473" s="7" t="s">
-        <v>25</v>
+      <c r="A473" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,7 +5642,7 @@
         <v>9</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -5637,7 +5650,7 @@
         <v>9</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -5645,15 +5658,15 @@
         <v>9</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>253</v>
+      <c r="A477" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B477" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -5661,7 +5674,7 @@
         <v>9</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -5669,7 +5682,7 @@
         <v>9</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -5677,31 +5690,31 @@
         <v>9</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>250</v>
+      <c r="A481" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>34</v>
+      <c r="A482" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>35</v>
+      <c r="A483" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -5709,7 +5722,7 @@
         <v>9</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -5717,15 +5730,15 @@
         <v>9</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B486" s="2" t="s">
-        <v>252</v>
+      <c r="A486" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -5733,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -5741,7 +5754,7 @@
         <v>9</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -5749,7 +5762,7 @@
         <v>9</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -5757,15 +5770,15 @@
         <v>9</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>254</v>
+        <v>73</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>34</v>
+      <c r="A491" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -5773,7 +5786,7 @@
         <v>9</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -5781,7 +5794,7 @@
         <v>9</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -5789,23 +5802,23 @@
         <v>9</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>241</v>
+      <c r="A495" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B495" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>259</v>
+      <c r="A496" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -5813,7 +5826,7 @@
         <v>9</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -5821,23 +5834,23 @@
         <v>9</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>256</v>
+      <c r="A499" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>257</v>
+      <c r="A500" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -5845,7 +5858,7 @@
         <v>9</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -5853,7 +5866,7 @@
         <v>9</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>35</v>
+        <v>248</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -5861,7 +5874,7 @@
         <v>9</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -5869,15 +5882,15 @@
         <v>9</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>73</v>
+        <v>250</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>260</v>
+      <c r="A505" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -5885,7 +5898,7 @@
         <v>9</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -5893,7 +5906,7 @@
         <v>9</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -5901,15 +5914,15 @@
         <v>9</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B509" s="7" t="s">
-        <v>25</v>
+      <c r="A509" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -5917,7 +5930,7 @@
         <v>9</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -5925,7 +5938,7 @@
         <v>9</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -5933,15 +5946,15 @@
         <v>9</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>73</v>
+        <v>249</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B513" s="2" t="s">
-        <v>261</v>
+      <c r="A513" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -5949,7 +5962,7 @@
         <v>9</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -5957,7 +5970,7 @@
         <v>9</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -5965,7 +5978,7 @@
         <v>9</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -5973,23 +5986,23 @@
         <v>9</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>35</v>
+      <c r="A518" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>264</v>
+      <c r="A519" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -5997,15 +6010,15 @@
         <v>9</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B521" s="2" t="s">
-        <v>266</v>
+      <c r="A521" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6013,7 +6026,7 @@
         <v>9</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6021,7 +6034,7 @@
         <v>9</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6029,15 +6042,15 @@
         <v>9</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>268</v>
+        <v>34</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B525" s="7" t="s">
-        <v>25</v>
+      <c r="A525" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6045,7 +6058,7 @@
         <v>9</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6053,23 +6066,23 @@
         <v>9</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>288</v>
+        <v>73</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>269</v>
+      <c r="A528" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>270</v>
+      <c r="A529" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6077,7 +6090,7 @@
         <v>9</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6085,15 +6098,15 @@
         <v>9</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>273</v>
+      <c r="A532" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B532" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6101,7 +6114,7 @@
         <v>9</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -6109,7 +6122,7 @@
         <v>9</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -6117,23 +6130,23 @@
         <v>9</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
+      <c r="A536" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B536" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B536" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>271</v>
+      <c r="B537" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -6141,7 +6154,7 @@
         <v>9</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -6149,7 +6162,7 @@
         <v>9</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -6157,15 +6170,15 @@
         <v>9</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B541" s="7" t="s">
-        <v>25</v>
+      <c r="A541" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -6173,7 +6186,7 @@
         <v>9</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>277</v>
+        <v>35</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -6181,11 +6194,219 @@
         <v>9</v>
       </c>
       <c r="B543" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B549" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B552" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B566" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B568" s="1" t="s">
         <v>278</v>
       </c>
     </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B569" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I543" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I569" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
